--- a/RPA_Repository/06.부동산공시가격/1.요청/부동산공시가격_Temp.xlsx
+++ b/RPA_Repository/06.부동산공시가격/1.요청/부동산공시가격_Temp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20411"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rpasj\Documents\02_교육_202405_강동\03_강동수업자료\03_미니프로젝트\06_부동산공시가격\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ICT CoC\Documents\UiPath\RPA_Repository\06.부동산공시가격\1.요청\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B84811B1-F547-4556-823B-EAD4626B5EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE7B632-9C00-4FAC-AECB-CAADED012999}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23950" yWindow="5970" windowWidth="21600" windowHeight="11300" xr2:uid="{57C4D437-1CB2-468E-BEE9-DB56AB4DF829}"/>
+    <workbookView xWindow="-23955" yWindow="5970" windowWidth="21600" windowHeight="11295" xr2:uid="{57C4D437-1CB2-468E-BEE9-DB56AB4DF829}"/>
   </bookViews>
   <sheets>
     <sheet name="회원목록" sheetId="1" r:id="rId1"/>
@@ -19,17 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -737,9 +726,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{486F02DF-D866-446D-A5ED-D44204B2CBDF}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M2" sqref="M2"/>
+      <selection pane="bottomLeft" activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1107,5 +1096,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>